--- a/Project4_NLPGrandmaLetters/data/data_lettercount.xlsx
+++ b/Project4_NLPGrandmaLetters/data/data_lettercount.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kellyjones/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kellyjones/metis/metis_bootcamp/Project4_NLPGrandmaLetters/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3DF144-5413-5342-99B8-5ADC7409DF23}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB4D6AC-1453-5142-8470-65B3F02727DF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{4F84D081-953E-3945-8520-121486A8B591}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -432,7 +432,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,7 +474,7 @@
       </c>
       <c r="D2" s="2">
         <f>C2/$C$28</f>
-        <v>2.6385224274406332E-3</v>
+        <v>2.6737967914438501E-3</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -497,7 +497,7 @@
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D28" si="0">C3/$C$28</f>
-        <v>5.2770448548812663E-3</v>
+        <v>5.3475935828877002E-3</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -520,7 +520,7 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5831134564643801E-2</v>
+        <v>1.6042780748663103E-2</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -543,7 +543,7 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>2.3746701846965697E-2</v>
+        <v>2.4064171122994651E-2</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -566,7 +566,7 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>3.6939313984168866E-2</v>
+        <v>3.7433155080213901E-2</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -589,7 +589,7 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>6.860158311345646E-2</v>
+        <v>6.9518716577540107E-2</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -612,7 +612,7 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>0.15303430079155672</v>
+        <v>0.15508021390374332</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -627,22 +627,22 @@
         <v>1951</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>0.20580474934036938</v>
+        <v>0.21122994652406418</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -650,22 +650,22 @@
         <v>1952</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>0.26649076517150394</v>
+        <v>0.27540106951871657</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>0.21739130434782608</v>
+        <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -673,22 +673,22 @@
         <v>1953</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>0.31926121372031663</v>
+        <v>0.31818181818181818</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -700,11 +700,11 @@
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>0.39313984168865435</v>
+        <v>0.39304812834224601</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
@@ -720,11 +720,11 @@
       </c>
       <c r="C13">
         <f t="shared" si="2"/>
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>0.42480211081794195</v>
+        <v>0.42513368983957217</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
@@ -740,11 +740,11 @@
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>0.46437994722955145</v>
+        <v>0.46524064171122997</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
@@ -760,11 +760,11 @@
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>0.48812664907651715</v>
+        <v>0.48930481283422461</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
@@ -776,22 +776,22 @@
         <v>1958</v>
       </c>
       <c r="B16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>0.53825857519788922</v>
+        <v>0.53208556149732622</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="1"/>
-        <v>0.10526315789473684</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -803,11 +803,11 @@
       </c>
       <c r="C17">
         <f t="shared" si="2"/>
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>0.58839050131926118</v>
+        <v>0.58288770053475936</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="1"/>
@@ -823,11 +823,11 @@
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>0.64116094986807393</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -846,11 +846,11 @@
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>0.65171503957783639</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="1"/>
@@ -866,11 +866,11 @@
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>0.66754617414248019</v>
+        <v>0.66310160427807485</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -889,11 +889,11 @@
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>0.72823218997361483</v>
+        <v>0.72459893048128343</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
@@ -909,11 +909,11 @@
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>0.74670184696569919</v>
+        <v>0.74331550802139035</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="1"/>
@@ -929,11 +929,11 @@
       </c>
       <c r="C23">
         <f t="shared" si="2"/>
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>0.74670184696569919</v>
+        <v>0.74331550802139035</v>
       </c>
       <c r="F23" s="2"/>
     </row>
@@ -946,11 +946,11 @@
       </c>
       <c r="C24">
         <f t="shared" si="2"/>
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>0.80211081794195249</v>
+        <v>0.79946524064171121</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="1"/>
@@ -966,11 +966,11 @@
       </c>
       <c r="C25">
         <f t="shared" si="2"/>
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>0.82058047493403696</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -989,11 +989,11 @@
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>0.86279683377308702</v>
+        <v>0.86096256684491979</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -1012,11 +1012,11 @@
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>0.97361477572559363</v>
+        <v>0.9732620320855615</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="C28" s="4">
         <f t="shared" si="2"/>
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D28" s="5">
         <f t="shared" si="0"/>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="C29" s="1">
         <f>C28</f>
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D29" s="3">
         <f>D28</f>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="F29" s="3">
         <f>E29/C29</f>
-        <v>0.13192612137203166</v>
+        <v>0.13368983957219252</v>
       </c>
     </row>
   </sheetData>
